--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_EQ组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_EQ组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>No</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>【租客App】安全相关：使用统一的零时图片文件上传路径</t>
+  </si>
+  <si>
+    <t>【租客PC】修复北京的用户无法在首页切换到上海的问题</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -242,8 +245,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -285,16 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +306,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,23 +362,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,17 +378,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,17 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,27 +407,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,9 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,13 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,13 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +537,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,115 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,17 +745,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,11 +769,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,30 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -828,178 +842,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1497,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:T214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2846,18 +2849,38 @@
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A32" s="14"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+    <row r="32" s="9" customFormat="1" ht="33" spans="1:20">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="17">
+        <v>42444</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="17">
+        <v>42444</v>
+      </c>
       <c r="I32" s="16"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="L32" s="16"/>
       <c r="M32" s="26"/>
       <c r="N32" s="17"/>
@@ -6628,28 +6651,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_EQ组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_EQ组.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -206,50 +206,98 @@
     <t>【租客App】安全相关：增加验证Token</t>
   </si>
   <si>
+    <t>【租客App】安全相关：使用统一的零时图片文件上传路径</t>
+  </si>
+  <si>
+    <t>对应backlog序号</t>
+  </si>
+  <si>
+    <t>bug描述</t>
+  </si>
+  <si>
+    <t>影响数据范围</t>
+  </si>
+  <si>
+    <t>影响级别</t>
+  </si>
+  <si>
+    <t>是否修正</t>
+  </si>
+  <si>
+    <t>预计修正时间</t>
+  </si>
+  <si>
+    <t>修正的方式（是脚本修复还是功能工具修复）</t>
+  </si>
+  <si>
+    <t>修正负责人</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>陈美</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>【租客App】安全相关：文件上传验证文件后缀</t>
-  </si>
-  <si>
-    <t>【租客App】安全相关：使用统一的零时图片文件上传路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>【租客PC】修复北京的用户无法在首页切换到上海的问题</t>
-  </si>
-  <si>
-    <t>对应backlog序号</t>
-  </si>
-  <si>
-    <t>bug描述</t>
-  </si>
-  <si>
-    <t>影响数据范围</t>
-  </si>
-  <si>
-    <t>影响级别</t>
-  </si>
-  <si>
-    <t>是否修正</t>
-  </si>
-  <si>
-    <t>预计修正时间</t>
-  </si>
-  <si>
-    <t>修正的方式（是脚本修复还是功能工具修复）</t>
-  </si>
-  <si>
-    <t>修正负责人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布后，正式环境验证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提交初始化脚本</t>
+  </si>
+  <si>
+    <t>已提交初始化脚本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -282,45 +330,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,127 +342,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,198 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -744,265 +460,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1050,7 +524,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,7 +533,7 @@
     <xf numFmtId="58" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,63 +582,85 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="22"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="48"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1176,7 +672,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1496,18 +992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29" style="11" customWidth="1"/>
+    <col min="2" max="2" width="49" style="11" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
@@ -1517,7 +1015,7 @@
     <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="10" customWidth="1"/>
     <col min="11" max="12" width="11.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9" style="11"/>
+    <col min="13" max="13" width="21.375" style="11" customWidth="1"/>
     <col min="14" max="14" width="11.625" style="11" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="12" customWidth="1"/>
@@ -1527,7 +1025,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1621,16 +1119,26 @@
       <c r="L2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="26"/>
+      <c r="M2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
+      <c r="R2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="T2" s="32"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1665,16 +1173,26 @@
       <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
+      <c r="R3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1706,17 +1224,25 @@
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1748,17 +1274,25 @@
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="30"/>
       <c r="S5" s="31"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1790,17 +1324,25 @@
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="30"/>
       <c r="S6" s="31"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1832,17 +1374,25 @@
       <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="30"/>
       <c r="S7" s="31"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1874,17 +1424,25 @@
       <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="26"/>
+      <c r="L8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="30"/>
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1916,17 +1474,25 @@
       <c r="K9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="26"/>
+      <c r="L9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="30"/>
       <c r="S9" s="31"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1958,9 +1524,13 @@
       <c r="K10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="M10" s="26"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="17">
+        <v>42444</v>
+      </c>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
@@ -1968,7 +1538,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2000,17 +1570,25 @@
       <c r="K11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="26"/>
+      <c r="L11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="30"/>
       <c r="S11" s="31"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2042,17 +1620,25 @@
       <c r="K12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="26"/>
+      <c r="L12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="30"/>
       <c r="S12" s="33"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2084,16 +1670,24 @@
       <c r="K13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="26"/>
+      <c r="L13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="30"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2125,17 +1719,25 @@
       <c r="K14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="26"/>
+      <c r="L14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
       <c r="T14" s="32"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2167,7 +1769,9 @@
       <c r="K15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="M15" s="26"/>
       <c r="N15" s="17"/>
       <c r="O15" s="26"/>
@@ -2177,7 +1781,7 @@
       <c r="S15" s="31"/>
       <c r="T15" s="32"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="49.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="45.75" customHeight="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2209,17 +1813,25 @@
       <c r="K16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="26"/>
+      <c r="L16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2251,17 +1863,25 @@
       <c r="K17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="26"/>
+      <c r="L17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2293,17 +1913,25 @@
       <c r="K18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="26"/>
+      <c r="L18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2335,17 +1963,25 @@
       <c r="K19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="26"/>
+      <c r="L19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2377,17 +2013,25 @@
       <c r="K20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="26"/>
+      <c r="L20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2419,17 +2063,25 @@
       <c r="K21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="26"/>
+      <c r="L21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2461,17 +2113,25 @@
       <c r="K22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="26"/>
+      <c r="L22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2503,17 +2163,25 @@
       <c r="K23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="26"/>
+      <c r="L23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2545,17 +2213,25 @@
       <c r="K24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="26"/>
+      <c r="L24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2587,17 +2263,25 @@
       <c r="K25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="26"/>
+      <c r="L25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2629,17 +2313,25 @@
       <c r="K26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="26"/>
+      <c r="L26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2671,17 +2363,25 @@
       <c r="K27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="26"/>
+      <c r="L27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2713,17 +2413,25 @@
       <c r="K28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="26"/>
+      <c r="L28" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2755,22 +2463,30 @@
       <c r="K29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="26"/>
+      <c r="L29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>61</v>
@@ -2797,22 +2513,30 @@
       <c r="K30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="26"/>
+      <c r="L30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>61</v>
@@ -2839,22 +2563,30 @@
       <c r="K31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="26"/>
+      <c r="L31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>61</v>
@@ -2881,17 +2613,25 @@
       <c r="K32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="26"/>
+      <c r="L32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="17">
+        <v>42444</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="19"/>
       <c r="C33" s="16"/>
@@ -2913,7 +2653,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="19"/>
       <c r="C34" s="16"/>
@@ -2935,7 +2675,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="32"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="19"/>
       <c r="C35" s="16"/>
@@ -2957,7 +2697,7 @@
       <c r="S35" s="31"/>
       <c r="T35" s="32"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="19"/>
       <c r="C36" s="16"/>
@@ -2979,7 +2719,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="14"/>
       <c r="B37" s="19"/>
       <c r="C37" s="16"/>
@@ -3001,7 +2741,7 @@
       <c r="S37" s="31"/>
       <c r="T37" s="32"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="14"/>
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
@@ -3023,7 +2763,7 @@
       <c r="S38" s="31"/>
       <c r="T38" s="32"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="14"/>
       <c r="B39" s="19"/>
       <c r="C39" s="16"/>
@@ -3045,7 +2785,7 @@
       <c r="S39" s="31"/>
       <c r="T39" s="32"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="14"/>
       <c r="B40" s="19"/>
       <c r="C40" s="16"/>
@@ -3067,7 +2807,7 @@
       <c r="S40" s="31"/>
       <c r="T40" s="32"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="14"/>
       <c r="B41" s="19"/>
       <c r="C41" s="16"/>
@@ -3089,7 +2829,7 @@
       <c r="S41" s="31"/>
       <c r="T41" s="32"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="14"/>
       <c r="B42" s="19"/>
       <c r="C42" s="16"/>
@@ -3111,7 +2851,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="32"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="14"/>
       <c r="B43" s="19"/>
       <c r="C43" s="16"/>
@@ -3133,7 +2873,7 @@
       <c r="S43" s="31"/>
       <c r="T43" s="32"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="14"/>
       <c r="B44" s="19"/>
       <c r="C44" s="16"/>
@@ -3155,7 +2895,7 @@
       <c r="S44" s="31"/>
       <c r="T44" s="32"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="14"/>
       <c r="B45" s="19"/>
       <c r="C45" s="16"/>
@@ -3177,7 +2917,7 @@
       <c r="S45" s="31"/>
       <c r="T45" s="32"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="14"/>
       <c r="B46" s="19"/>
       <c r="C46" s="16"/>
@@ -3199,7 +2939,7 @@
       <c r="S46" s="31"/>
       <c r="T46" s="32"/>
     </row>
-    <row r="47" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="14"/>
       <c r="B47" s="19"/>
       <c r="C47" s="16"/>
@@ -3221,7 +2961,7 @@
       <c r="S47" s="31"/>
       <c r="T47" s="32"/>
     </row>
-    <row r="48" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="14"/>
       <c r="B48" s="19"/>
       <c r="C48" s="16"/>
@@ -3243,7 +2983,7 @@
       <c r="S48" s="31"/>
       <c r="T48" s="32"/>
     </row>
-    <row r="49" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A49" s="14"/>
       <c r="B49" s="19"/>
       <c r="C49" s="16"/>
@@ -3265,7 +3005,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="32"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A50" s="14"/>
       <c r="B50" s="19"/>
       <c r="C50" s="16"/>
@@ -3287,7 +3027,7 @@
       <c r="S50" s="31"/>
       <c r="T50" s="32"/>
     </row>
-    <row r="51" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="14"/>
       <c r="B51" s="19"/>
       <c r="C51" s="16"/>
@@ -3309,7 +3049,7 @@
       <c r="S51" s="31"/>
       <c r="T51" s="32"/>
     </row>
-    <row r="52" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="14"/>
       <c r="B52" s="19"/>
       <c r="C52" s="16"/>
@@ -3331,7 +3071,7 @@
       <c r="S52" s="31"/>
       <c r="T52" s="32"/>
     </row>
-    <row r="53" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="14"/>
       <c r="B53" s="19"/>
       <c r="C53" s="16"/>
@@ -3353,7 +3093,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="32"/>
     </row>
-    <row r="54" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="14"/>
       <c r="B54" s="19"/>
       <c r="C54" s="16"/>
@@ -3375,7 +3115,7 @@
       <c r="S54" s="31"/>
       <c r="T54" s="32"/>
     </row>
-    <row r="55" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="14"/>
       <c r="B55" s="19"/>
       <c r="C55" s="16"/>
@@ -3397,7 +3137,7 @@
       <c r="S55" s="31"/>
       <c r="T55" s="32"/>
     </row>
-    <row r="56" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="14"/>
       <c r="B56" s="19"/>
       <c r="C56" s="16"/>
@@ -3419,7 +3159,7 @@
       <c r="S56" s="31"/>
       <c r="T56" s="32"/>
     </row>
-    <row r="57" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="20"/>
@@ -3441,7 +3181,7 @@
       <c r="S57" s="21"/>
       <c r="T57" s="32"/>
     </row>
-    <row r="58" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="20"/>
@@ -3463,7 +3203,7 @@
       <c r="S58" s="21"/>
       <c r="T58" s="32"/>
     </row>
-    <row r="59" ht="16.5" spans="1:19">
+    <row r="59" spans="1:20" ht="16.5">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="23"/>
@@ -3484,7 +3224,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" ht="16.5" spans="1:19">
+    <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="23"/>
@@ -3505,7 +3245,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" ht="16.5" spans="1:19">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="23"/>
@@ -3526,7 +3266,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="24"/>
     </row>
-    <row r="62" ht="16.5" spans="1:19">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="23"/>
@@ -3547,7 +3287,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="24"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="23"/>
@@ -3568,7 +3308,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="23"/>
@@ -3589,7 +3329,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="23"/>
@@ -3610,7 +3350,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="23"/>
@@ -3631,7 +3371,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="23"/>
@@ -3652,7 +3392,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="23"/>
@@ -3673,7 +3413,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="23"/>
@@ -3694,7 +3434,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="23"/>
@@ -3715,7 +3455,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="23"/>
@@ -3736,7 +3476,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="23"/>
@@ -3757,7 +3497,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="23"/>
@@ -3778,7 +3518,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="23"/>
@@ -3799,7 +3539,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="23"/>
@@ -3820,7 +3560,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="23"/>
@@ -3841,7 +3581,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="23"/>
@@ -3862,7 +3602,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="23"/>
@@ -3883,7 +3623,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -3904,7 +3644,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="23"/>
@@ -3925,7 +3665,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="23"/>
@@ -3946,7 +3686,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="23"/>
@@ -3967,7 +3707,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="23"/>
@@ -3988,7 +3728,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -4009,7 +3749,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="23"/>
@@ -4030,7 +3770,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="23"/>
@@ -4051,7 +3791,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="23"/>
@@ -4072,7 +3812,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="23"/>
@@ -4093,7 +3833,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="23"/>
       <c r="B89" s="24"/>
       <c r="C89" s="23"/>
@@ -4114,7 +3854,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="23"/>
       <c r="B90" s="24"/>
       <c r="C90" s="23"/>
@@ -4135,7 +3875,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="23"/>
@@ -4156,7 +3896,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="23"/>
@@ -4177,7 +3917,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" ht="16.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="23"/>
@@ -4198,7 +3938,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" ht="16.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="23"/>
@@ -4219,7 +3959,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" ht="16.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="23"/>
@@ -4240,7 +3980,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" ht="16.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
@@ -4261,7 +4001,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" ht="16.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="23"/>
@@ -4282,7 +4022,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" ht="16.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="23"/>
@@ -4303,7 +4043,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" ht="16.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
@@ -4324,7 +4064,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" ht="16.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
@@ -4345,7 +4085,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" ht="16.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="23"/>
@@ -4366,7 +4106,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" ht="16.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="23"/>
@@ -4387,7 +4127,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" ht="16.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="23"/>
@@ -4408,7 +4148,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" ht="16.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="23"/>
@@ -4429,7 +4169,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" ht="16.5" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="23"/>
@@ -4450,7 +4190,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" ht="16.5" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="23"/>
@@ -4471,7 +4211,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" ht="16.5" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="23"/>
@@ -4492,7 +4232,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" ht="16.5" spans="1:19">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="23"/>
@@ -4513,7 +4253,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" ht="16.5" spans="1:19">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="23"/>
@@ -4534,7 +4274,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" ht="16.5" spans="1:19">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="23"/>
@@ -4555,7 +4295,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" ht="16.5" spans="1:19">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="23"/>
@@ -4576,7 +4316,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" ht="16.5" spans="1:19">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="23"/>
       <c r="B112" s="24"/>
       <c r="C112" s="23"/>
@@ -4597,7 +4337,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" ht="16.5" spans="1:19">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="23"/>
@@ -4618,7 +4358,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" ht="16.5" spans="1:19">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="23"/>
@@ -4639,7 +4379,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" ht="16.5" spans="1:19">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="23"/>
@@ -4660,7 +4400,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" ht="16.5" spans="1:19">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
@@ -4681,7 +4421,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" ht="16.5" spans="1:19">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="23"/>
@@ -4702,7 +4442,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" ht="16.5" spans="1:19">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="23"/>
@@ -4723,7 +4463,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" ht="16.5" spans="1:19">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="23"/>
@@ -6623,22 +6363,21 @@
       <c r="S214" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -6651,31 +6390,31 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -6858,12 +6597,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>